--- a/NTLA.xlsx
+++ b/NTLA.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ffda80931a57275/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="342" documentId="8_{A7694AFA-BC57-49E7-B5AD-9C4938AC3052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F00C6C2-4F14-4386-8F42-AB4879DC74E2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11695583-11FD-4453-B9CE-89386F5DC868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23805" yWindow="1095" windowWidth="26385" windowHeight="18735" activeTab="1" xr2:uid="{7C8214AC-F21F-4B6C-8D76-6029D4F15773}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{7C8214AC-F21F-4B6C-8D76-6029D4F15773}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="NTLA-2001" sheetId="3" r:id="rId3"/>
     <sheet name="NTLA-2002" sheetId="4" r:id="rId4"/>
+    <sheet name="NTLA-3001" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t>Price</t>
   </si>
@@ -77,9 +78,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q322</t>
-  </si>
-  <si>
     <t>AD</t>
   </si>
   <si>
@@ -191,9 +189,6 @@
     <t>NTLA-3001</t>
   </si>
   <si>
-    <t>IND in 2H23</t>
-  </si>
-  <si>
     <t>CEO: John Leonard</t>
   </si>
   <si>
@@ -215,9 +210,6 @@
     <t>II in 2023</t>
   </si>
   <si>
-    <t>Phase III ATTR-CM - initiate by YE23</t>
-  </si>
-  <si>
     <t>Phase III ATTR-PN</t>
   </si>
   <si>
@@ -339,13 +331,52 @@
   </si>
   <si>
     <t>Share</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>CTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indication </t>
+  </si>
+  <si>
+    <t>Alpha-1 Antitrypsin Deficiency</t>
+  </si>
+  <si>
+    <t>Mechanism</t>
+  </si>
+  <si>
+    <t>8/10 attack free at 2 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 - 60% at week 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 - 88% at week 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 - 95% at week 88</t>
+  </si>
+  <si>
+    <t>Phase III</t>
+  </si>
+  <si>
+    <t>Competitors</t>
+  </si>
+  <si>
+    <t>Orladeyo (berotralstat), Firazyr (icatibant), Haegarda, Cinryze, Berinert, Ruconest, Kalbitor, Takhzyro (lanadelumab) - $1.1B</t>
+  </si>
+  <si>
+    <t>Phase III "MAGNITUDE" ATTR-CM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -379,12 +410,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -495,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -503,7 +528,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -511,7 +535,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -534,7 +557,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{8A4F39D6-ED32-4CC9-BCDD-5B149C5B1AD9}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -553,9 +578,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -593,7 +618,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -699,7 +724,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -841,7 +866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -859,7 +884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89B432B-967F-417C-9021-14265A25557D}">
   <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -871,119 +898,114 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="12"/>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="11"/>
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>41.63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="6"/>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="5"/>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <f>78.684039+6.6</f>
-        <v>85.284038999999993</v>
+        <v>96.474999999999994</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>3550.3745435699998</v>
+        <v>2508.35</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <f>141.194+687+20.533+40.102+290</f>
-        <v>1178.829</v>
+        <f>171.979+619.315+162.09</f>
+        <v>953.38400000000013</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="5"/>
       <c r="I6" t="s">
         <v>4</v>
       </c>
@@ -991,142 +1013,130 @@
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>2371.5455435699996</v>
+        <v>1554.9659999999999</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="C8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
-      <c r="C9" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="I9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="2">
-        <v>1898.0909999999999</v>
+        <v>1765.8150000000001</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="2">
-        <v>1063.78</v>
+        <v>2802.8890000000001</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>58</v>
+        <v>44</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="E14" s="18" t="s">
-        <v>59</v>
+      <c r="E14" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1142,11 +1152,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEEAA28-1F5A-4385-9113-080E34EAA000}">
   <dimension ref="A1:AY24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6:T10"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1158,8 +1168,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>33</v>
+      <c r="A1" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.2">
@@ -1361,7 +1371,7 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3">
         <v>225</v>
@@ -1369,452 +1379,452 @@
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="20">
+        <v>72</v>
+      </c>
+      <c r="G4" s="18">
         <f>2327/0.225</f>
         <v>10342.222222222223</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="20">
+        <v>73</v>
+      </c>
+      <c r="G5" s="18">
         <v>2327</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="20">
+        <v>75</v>
+      </c>
+      <c r="G6" s="18">
         <v>2500</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <v>2500</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <v>2500</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="18">
         <v>2500</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="18">
         <v>2500</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="18">
         <v>2500</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="18">
         <v>2500</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="18">
         <v>2500</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="18">
         <v>2500</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="18">
         <v>2500</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="18">
         <v>2500</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="18">
         <v>2500</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="18">
         <v>2500</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="18">
         <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="20">
+        <v>76</v>
+      </c>
+      <c r="G7" s="18">
         <v>500</v>
       </c>
       <c r="H7" s="3">
         <v>750</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <v>1000</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <v>1000</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="18">
         <v>1000</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="18">
         <f>+K7*0.9</f>
         <v>900</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="18">
         <f t="shared" ref="M7:P7" si="1">+L7*0.9</f>
         <v>810</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="18">
         <f t="shared" si="1"/>
         <v>729</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="18">
         <f t="shared" si="1"/>
         <v>656.1</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="18">
         <f t="shared" si="1"/>
         <v>590.49</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="18">
         <f t="shared" ref="Q7:T7" si="2">+P7*0.9</f>
         <v>531.44100000000003</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="18">
         <f t="shared" si="2"/>
         <v>478.29690000000005</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="18">
         <f t="shared" si="2"/>
         <v>430.46721000000008</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="18">
         <f t="shared" si="2"/>
         <v>387.42048900000009</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="20">
+      <c r="G8" s="18">
         <f>+G6*G7/1000</f>
         <v>1250</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <f>+H6*H7/1000</f>
         <v>1875</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="18">
         <f>+I6*I7/1000</f>
         <v>2500</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="18">
         <f t="shared" ref="J8:L8" si="3">+J6*J7/1000</f>
         <v>2500</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="18">
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="18">
         <f t="shared" si="3"/>
         <v>2250</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="18">
         <f t="shared" ref="M8" si="4">+M6*M7/1000</f>
         <v>2025</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="18">
         <f t="shared" ref="N8" si="5">+N6*N7/1000</f>
         <v>1822.5</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="18">
         <f t="shared" ref="O8" si="6">+O6*O7/1000</f>
         <v>1640.25</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="18">
         <f t="shared" ref="P8" si="7">+P6*P7/1000</f>
         <v>1476.2249999999999</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="18">
         <f t="shared" ref="Q8" si="8">+Q6*Q7/1000</f>
         <v>1328.6025</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="18">
         <f t="shared" ref="R8" si="9">+R6*R7/1000</f>
         <v>1195.7422500000002</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="18">
         <f t="shared" ref="S8" si="10">+S6*S7/1000</f>
         <v>1076.1680250000002</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="18">
         <f t="shared" ref="T8" si="11">+T6*T7/1000</f>
         <v>968.55122250000022</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="20">
+        <v>77</v>
+      </c>
+      <c r="H9" s="18">
         <f>+H8*0.2</f>
         <v>375</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <f t="shared" ref="I9:P9" si="12">+I8*0.2</f>
         <v>500</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <f t="shared" si="12"/>
         <v>500</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="18">
         <f t="shared" si="12"/>
         <v>500</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="18">
         <f t="shared" si="12"/>
         <v>450</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="18">
         <f t="shared" si="12"/>
         <v>405</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="18">
         <f t="shared" si="12"/>
         <v>364.5</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="18">
         <f t="shared" si="12"/>
         <v>328.05</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="18">
         <f t="shared" si="12"/>
         <v>295.245</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="18">
         <f t="shared" ref="Q9" si="13">+Q8*0.2</f>
         <v>265.72050000000002</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="18">
         <f t="shared" ref="R9" si="14">+R8*0.2</f>
         <v>239.14845000000005</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="18">
         <f t="shared" ref="S9" si="15">+S8*0.2</f>
         <v>215.23360500000004</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="18">
         <f t="shared" ref="T9" si="16">+T8*0.2</f>
         <v>193.71024450000004</v>
       </c>
     </row>
-    <row r="10" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22">
+    <row r="10" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20">
         <f>+G8+G9</f>
         <v>1250</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="20">
         <f t="shared" ref="H10:W10" si="17">+H8+H9</f>
         <v>2250</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="20">
         <f t="shared" si="17"/>
         <v>3000</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="20">
         <f t="shared" si="17"/>
         <v>3000</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="20">
         <f t="shared" si="17"/>
         <v>3000</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="20">
         <f t="shared" si="17"/>
         <v>2700</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="20">
         <f t="shared" si="17"/>
         <v>2430</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="20">
         <f t="shared" si="17"/>
         <v>2187</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="20">
         <f t="shared" si="17"/>
         <v>1968.3</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="20">
         <f t="shared" si="17"/>
         <v>1771.4699999999998</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="20">
         <f t="shared" si="17"/>
         <v>1594.3229999999999</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="20">
         <f t="shared" si="17"/>
         <v>1434.8907000000004</v>
       </c>
-      <c r="S10" s="22">
+      <c r="S10" s="20">
         <f t="shared" si="17"/>
         <v>1291.4016300000003</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="20">
         <f t="shared" si="17"/>
         <v>1162.2614670000003</v>
       </c>
-      <c r="U10" s="22">
+      <c r="U10" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="V10" s="22">
+      <c r="V10" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="W10" s="22">
+      <c r="W10" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="20">
+        <v>78</v>
+      </c>
+      <c r="G11" s="18">
         <f>+G10*0.05</f>
         <v>62.5</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="18">
         <f t="shared" ref="H11:T11" si="18">+H10*0.05</f>
         <v>112.5</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="18">
         <f t="shared" si="18"/>
         <v>150</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <f t="shared" si="18"/>
         <v>150</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="18">
         <f t="shared" si="18"/>
         <v>150</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="18">
         <f t="shared" si="18"/>
         <v>135</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="18">
         <f t="shared" si="18"/>
         <v>121.5</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="18">
         <f t="shared" si="18"/>
         <v>109.35000000000001</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="18">
         <f t="shared" si="18"/>
         <v>98.415000000000006</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="18">
         <f t="shared" si="18"/>
         <v>88.573499999999996</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="18">
         <f t="shared" si="18"/>
         <v>79.716149999999999</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="18">
         <f t="shared" si="18"/>
         <v>71.744535000000027</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="18">
         <f t="shared" si="18"/>
         <v>64.570081500000015</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="18">
         <f t="shared" si="18"/>
         <v>58.113073350000015</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="20">
+        <v>79</v>
+      </c>
+      <c r="G12" s="18">
         <f>+G10-G11</f>
         <v>1187.5</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="18">
         <f t="shared" ref="H12:T12" si="19">+H10-H11</f>
         <v>2137.5</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="18">
         <f t="shared" si="19"/>
         <v>2850</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="18">
         <f t="shared" si="19"/>
         <v>2850</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="18">
         <f t="shared" si="19"/>
         <v>2850</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="18">
         <f t="shared" si="19"/>
         <v>2565</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="18">
         <f t="shared" si="19"/>
         <v>2308.5</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="18">
         <f t="shared" si="19"/>
         <v>2077.65</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="18">
         <f t="shared" si="19"/>
         <v>1869.885</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="18">
         <f t="shared" si="19"/>
         <v>1682.8964999999998</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="18">
         <f t="shared" si="19"/>
         <v>1514.6068499999999</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="18">
         <f t="shared" si="19"/>
         <v>1363.1461650000003</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="18">
         <f t="shared" si="19"/>
         <v>1226.8315485000003</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="18">
         <f t="shared" si="19"/>
         <v>1104.1483936500003</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3">
         <v>200</v>
@@ -1861,190 +1871,190 @@
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="20">
+        <v>81</v>
+      </c>
+      <c r="G14" s="18">
         <f>+G12-G13</f>
         <v>987.5</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="18">
         <f t="shared" ref="H14:T14" si="20">+H12-H13</f>
         <v>1937.5</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="18">
         <f t="shared" si="20"/>
         <v>2650</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="18">
         <f t="shared" si="20"/>
         <v>2650</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="18">
         <f t="shared" si="20"/>
         <v>2650</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="18">
         <f t="shared" si="20"/>
         <v>2365</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="18">
         <f t="shared" si="20"/>
         <v>2108.5</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="18">
         <f t="shared" si="20"/>
         <v>1877.65</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="18">
         <f t="shared" si="20"/>
         <v>1669.885</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="18">
         <f t="shared" si="20"/>
         <v>1482.8964999999998</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="18">
         <f t="shared" si="20"/>
         <v>1314.6068499999999</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="18">
         <f t="shared" si="20"/>
         <v>1163.1461650000003</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="18">
         <f t="shared" si="20"/>
         <v>1026.8315485000003</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="18">
         <f t="shared" si="20"/>
         <v>904.14839365000034</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="20">
+        <v>82</v>
+      </c>
+      <c r="G15" s="18">
         <f>+G14*0.25</f>
         <v>246.875</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="18">
         <f t="shared" ref="H15:T15" si="21">+H14*0.25</f>
         <v>484.375</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="18">
         <f t="shared" si="21"/>
         <v>662.5</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="18">
         <f t="shared" si="21"/>
         <v>662.5</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="18">
         <f t="shared" si="21"/>
         <v>662.5</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="18">
         <f t="shared" si="21"/>
         <v>591.25</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="18">
         <f t="shared" si="21"/>
         <v>527.125</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="18">
         <f t="shared" si="21"/>
         <v>469.41250000000002</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="18">
         <f t="shared" si="21"/>
         <v>417.47125</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="18">
         <f t="shared" si="21"/>
         <v>370.72412499999996</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="18">
         <f t="shared" si="21"/>
         <v>328.65171249999997</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="18">
         <f t="shared" si="21"/>
         <v>290.78654125000008</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="18">
         <f t="shared" si="21"/>
         <v>256.70788712500007</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15" s="18">
         <f t="shared" si="21"/>
         <v>226.03709841250009</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="20">
+        <v>83</v>
+      </c>
+      <c r="G16" s="18">
         <f>+G14-G15</f>
         <v>740.625</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="18">
         <f t="shared" ref="H16:T16" si="22">+H14-H15</f>
         <v>1453.125</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="18">
         <f t="shared" si="22"/>
         <v>1987.5</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="18">
         <f t="shared" si="22"/>
         <v>1987.5</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="18">
         <f t="shared" si="22"/>
         <v>1987.5</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="18">
         <f t="shared" si="22"/>
         <v>1773.75</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="18">
         <f t="shared" si="22"/>
         <v>1581.375</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="18">
         <f t="shared" si="22"/>
         <v>1408.2375000000002</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="18">
         <f t="shared" si="22"/>
         <v>1252.4137499999999</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16" s="18">
         <f t="shared" si="22"/>
         <v>1112.1723749999999</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="18">
         <f t="shared" si="22"/>
         <v>985.95513749999986</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="18">
         <f t="shared" si="22"/>
         <v>872.35962375000031</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="18">
         <f t="shared" si="22"/>
         <v>770.12366137500021</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16" s="18">
         <f t="shared" si="22"/>
         <v>678.11129523750026</v>
       </c>
     </row>
     <row r="17" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -2052,58 +2062,58 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="18">
         <f>+I16*0.2</f>
         <v>397.5</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="18">
         <f t="shared" ref="J17:T17" si="23">+J16*0.2</f>
         <v>397.5</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="18">
         <f t="shared" si="23"/>
         <v>397.5</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="18">
         <f t="shared" si="23"/>
         <v>354.75</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="18">
         <f t="shared" si="23"/>
         <v>316.27500000000003</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="18">
         <f t="shared" si="23"/>
         <v>281.64750000000004</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="18">
         <f t="shared" si="23"/>
         <v>250.48275000000001</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17" s="18">
         <f t="shared" si="23"/>
         <v>222.43447499999999</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="18">
         <f t="shared" si="23"/>
         <v>197.19102749999999</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="18">
         <f t="shared" si="23"/>
         <v>174.47192475000008</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="18">
         <f t="shared" si="23"/>
         <v>154.02473227500005</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17" s="18">
         <f t="shared" si="23"/>
         <v>135.62225904750005</v>
       </c>
     </row>
     <row r="18" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D18" s="3">
         <v>-300</v>
@@ -2114,190 +2124,190 @@
       <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="18">
         <f>+G16-G17</f>
         <v>740.625</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="18">
         <f t="shared" ref="H18:T18" si="24">+H16-H17</f>
         <v>1453.125</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="18">
         <f t="shared" si="24"/>
         <v>1590</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="18">
         <f t="shared" si="24"/>
         <v>1590</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="18">
         <f t="shared" si="24"/>
         <v>1590</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="18">
         <f t="shared" si="24"/>
         <v>1419</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="18">
         <f t="shared" si="24"/>
         <v>1265.0999999999999</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="18">
         <f t="shared" si="24"/>
         <v>1126.5900000000001</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="18">
         <f t="shared" si="24"/>
         <v>1001.9309999999999</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18" s="18">
         <f t="shared" si="24"/>
         <v>889.73789999999985</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="18">
         <f t="shared" si="24"/>
         <v>788.76410999999985</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="18">
         <f t="shared" si="24"/>
         <v>697.88769900000023</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="18">
         <f t="shared" si="24"/>
         <v>616.09892910000019</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18" s="18">
         <f t="shared" si="24"/>
         <v>542.48903619000021</v>
       </c>
-      <c r="U18" s="20">
+      <c r="U18" s="18">
         <f>+T18*(1+$W$22)</f>
         <v>515.36458438050022</v>
       </c>
-      <c r="V18" s="20">
+      <c r="V18" s="18">
         <f t="shared" ref="V18:AY18" si="25">+U18*(1+$W$22)</f>
         <v>489.59635516147517</v>
       </c>
-      <c r="W18" s="20">
+      <c r="W18" s="18">
         <f t="shared" si="25"/>
         <v>465.11653740340137</v>
       </c>
-      <c r="X18" s="20">
+      <c r="X18" s="18">
         <f t="shared" si="25"/>
         <v>441.86071053323127</v>
       </c>
-      <c r="Y18" s="20">
+      <c r="Y18" s="18">
         <f t="shared" si="25"/>
         <v>419.76767500656968</v>
       </c>
-      <c r="Z18" s="20">
+      <c r="Z18" s="18">
         <f t="shared" si="25"/>
         <v>398.77929125624115</v>
       </c>
-      <c r="AA18" s="20">
+      <c r="AA18" s="18">
         <f t="shared" si="25"/>
         <v>378.84032669342906</v>
       </c>
-      <c r="AB18" s="20">
+      <c r="AB18" s="18">
         <f t="shared" si="25"/>
         <v>359.89831035875761</v>
       </c>
-      <c r="AC18" s="20">
+      <c r="AC18" s="18">
         <f t="shared" si="25"/>
         <v>341.90339484081971</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="AD18" s="18">
         <f t="shared" si="25"/>
         <v>324.80822509877873</v>
       </c>
-      <c r="AE18" s="20">
+      <c r="AE18" s="18">
         <f t="shared" si="25"/>
         <v>308.56781384383976</v>
       </c>
-      <c r="AF18" s="20">
+      <c r="AF18" s="18">
         <f t="shared" si="25"/>
         <v>293.13942315164775</v>
       </c>
-      <c r="AG18" s="20">
+      <c r="AG18" s="18">
         <f t="shared" si="25"/>
         <v>278.48245199406534</v>
       </c>
-      <c r="AH18" s="20">
+      <c r="AH18" s="18">
         <f t="shared" si="25"/>
         <v>264.55832939436209</v>
       </c>
-      <c r="AI18" s="20">
+      <c r="AI18" s="18">
         <f t="shared" si="25"/>
         <v>251.33041292464398</v>
       </c>
-      <c r="AJ18" s="20">
+      <c r="AJ18" s="18">
         <f t="shared" si="25"/>
         <v>238.76389227841176</v>
       </c>
-      <c r="AK18" s="20">
+      <c r="AK18" s="18">
         <f t="shared" si="25"/>
         <v>226.82569766449117</v>
       </c>
-      <c r="AL18" s="20">
+      <c r="AL18" s="18">
         <f t="shared" si="25"/>
         <v>215.4844127812666</v>
       </c>
-      <c r="AM18" s="20">
+      <c r="AM18" s="18">
         <f t="shared" si="25"/>
         <v>204.71019214220325</v>
       </c>
-      <c r="AN18" s="20">
+      <c r="AN18" s="18">
         <f t="shared" si="25"/>
         <v>194.47468253509308</v>
       </c>
-      <c r="AO18" s="20">
+      <c r="AO18" s="18">
         <f t="shared" si="25"/>
         <v>184.75094840833842</v>
       </c>
-      <c r="AP18" s="20">
+      <c r="AP18" s="18">
         <f t="shared" si="25"/>
         <v>175.5134009879215</v>
       </c>
-      <c r="AQ18" s="20">
+      <c r="AQ18" s="18">
         <f t="shared" si="25"/>
         <v>166.73773093852543</v>
       </c>
-      <c r="AR18" s="20">
+      <c r="AR18" s="18">
         <f t="shared" si="25"/>
         <v>158.40084439159915</v>
       </c>
-      <c r="AS18" s="20">
+      <c r="AS18" s="18">
         <f t="shared" si="25"/>
         <v>150.4808021720192</v>
       </c>
-      <c r="AT18" s="20">
+      <c r="AT18" s="18">
         <f t="shared" si="25"/>
         <v>142.95676206341824</v>
       </c>
-      <c r="AU18" s="20">
+      <c r="AU18" s="18">
         <f t="shared" si="25"/>
         <v>135.80892396024731</v>
       </c>
-      <c r="AV18" s="20">
+      <c r="AV18" s="18">
         <f t="shared" si="25"/>
         <v>129.01847776223494</v>
       </c>
-      <c r="AW18" s="20">
+      <c r="AW18" s="18">
         <f t="shared" si="25"/>
         <v>122.56755387412318</v>
       </c>
-      <c r="AX18" s="20">
+      <c r="AX18" s="18">
         <f t="shared" si="25"/>
         <v>116.43917618041701</v>
       </c>
-      <c r="AY18" s="20">
+      <c r="AY18" s="18">
         <f t="shared" si="25"/>
         <v>110.61721737139615</v>
       </c>
     </row>
     <row r="19" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19">
         <v>85</v>
@@ -2378,36 +2388,36 @@
     </row>
     <row r="21" spans="2:51" x14ac:dyDescent="0.2">
       <c r="V21" t="s">
-        <v>90</v>
-      </c>
-      <c r="W21" s="23">
+        <v>87</v>
+      </c>
+      <c r="W21" s="21">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="2:51" x14ac:dyDescent="0.2">
       <c r="V22" t="s">
-        <v>91</v>
-      </c>
-      <c r="W22" s="23">
+        <v>88</v>
+      </c>
+      <c r="W22" s="21">
         <v>-0.05</v>
       </c>
     </row>
     <row r="23" spans="2:51" x14ac:dyDescent="0.2">
       <c r="V23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="W23" s="2">
         <f>NPV(W21,D18:AY18)+Main!J5-Main!J6</f>
-        <v>7646.1790343987605</v>
+        <v>7420.7340343987607</v>
       </c>
     </row>
     <row r="24" spans="2:51" x14ac:dyDescent="0.2">
       <c r="V24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="W24" s="1">
         <f>W23/Main!J3</f>
-        <v>89.655451641997885</v>
+        <v>76.918725414861484</v>
       </c>
     </row>
   </sheetData>
@@ -2423,7 +2433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFD4975-DF27-4A82-9E0B-8E1BC512C2AC}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2432,87 +2444,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>33</v>
+      <c r="A1" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="16" t="s">
-        <v>41</v>
+      <c r="C9" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="16" t="s">
-        <v>52</v>
+      <c r="C16" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="16" t="s">
-        <v>53</v>
+      <c r="C18" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2525,11 +2537,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F2637C-3F78-434A-9DCB-4AB646A8764C}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2538,70 +2548,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>33</v>
+      <c r="A1" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="16" t="s">
-        <v>60</v>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>54</v>
+      <c r="C8" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>65</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2610,4 +2653,55 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB68746A-5C7C-4F30-800E-B9BC106F9046}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{BAC166F5-EFC8-47B7-9F4D-B40FDFDB56B7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NTLA.xlsx
+++ b/NTLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11695583-11FD-4453-B9CE-89386F5DC868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8E1679-A86F-4917-85C0-BD358A46CC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{7C8214AC-F21F-4B6C-8D76-6029D4F15773}"/>
+    <workbookView xWindow="-27945" yWindow="585" windowWidth="27915" windowHeight="20700" xr2:uid="{7C8214AC-F21F-4B6C-8D76-6029D4F15773}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
   <si>
     <t>Price</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Phase</t>
   </si>
   <si>
-    <t>I/II</t>
-  </si>
-  <si>
     <t>NTLA-5001</t>
   </si>
   <si>
@@ -207,12 +204,6 @@
     <t>Approval</t>
   </si>
   <si>
-    <t>II in 2023</t>
-  </si>
-  <si>
-    <t>Phase III ATTR-PN</t>
-  </si>
-  <si>
     <t>Phase II component initiates 1H23</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
     <t>11/30/2022: Prices secondary of 6.6m at 45.80 for $300m gross.</t>
   </si>
   <si>
-    <t>Phase I/II HAE - ongoing, presented at ACAAI 2022</t>
-  </si>
-  <si>
     <t>Administration</t>
   </si>
   <si>
@@ -336,9 +324,6 @@
     <t>Q124</t>
   </si>
   <si>
-    <t>CTA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Indication </t>
   </si>
   <si>
@@ -360,9 +345,6 @@
     <t xml:space="preserve">                 - 95% at week 88</t>
   </si>
   <si>
-    <t>Phase III</t>
-  </si>
-  <si>
     <t>Competitors</t>
   </si>
   <si>
@@ -370,6 +352,36 @@
   </si>
   <si>
     <t>Phase III "MAGNITUDE" ATTR-CM</t>
+  </si>
+  <si>
+    <t>Phase I/II HAE - ongoing, presented at ACAAI 2022, 2024</t>
+  </si>
+  <si>
+    <t>Phase III - 50mg to begin 2H2024</t>
+  </si>
+  <si>
+    <t>rapidly enrolling</t>
+  </si>
+  <si>
+    <t>Phase I/II FPI - 2H2024</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>nexiguran ziclumeran</t>
+  </si>
+  <si>
+    <t>Phase III n=50 ATTR-PN ex-US sites only</t>
+  </si>
+  <si>
+    <t>LAG3, TIM3, PD1, KLKB1, GAA, TRBC1, TRBC2 and/or TRAC, HAO1, Factor IX, TCF4</t>
+  </si>
+  <si>
+    <t>III 2H24</t>
+  </si>
+  <si>
+    <t>I 2H24</t>
   </si>
 </sst>
 </file>
@@ -520,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -551,6 +563,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -884,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89B432B-967F-417C-9021-14265A25557D}">
   <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -911,14 +924,14 @@
         <v>23</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="11"/>
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -932,10 +945,10 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="5"/>
       <c r="I3" t="s">
@@ -945,12 +958,12 @@
         <v>96.474999999999994</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -959,7 +972,10 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>106</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
       </c>
       <c r="G4" s="5"/>
       <c r="I4" t="s">
@@ -967,43 +983,45 @@
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>2508.35</v>
+        <v>1929.5</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>42</v>
+      <c r="B5" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>107</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1</v>
       </c>
       <c r="G5" s="5"/>
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <f>171.979+619.315+162.09</f>
-        <v>953.38400000000013</v>
+        <v>939.9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
       <c r="G6" s="5"/>
       <c r="I6" t="s">
@@ -1013,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G7" s="5"/>
       <c r="I7" t="s">
@@ -1027,20 +1045,20 @@
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>1554.9659999999999</v>
+        <v>989.6</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G9" s="5"/>
       <c r="I9" t="s">
@@ -1050,15 +1068,15 @@
         <v>1765.8150000000001</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G10" s="5"/>
       <c r="I10" t="s">
@@ -1068,40 +1086,45 @@
         <v>2802.8890000000001</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="8"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E14" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
@@ -1143,6 +1166,7 @@
   <hyperlinks>
     <hyperlink ref="B3" location="'NTLA-2001'!A1" display="NTLA-2001" xr:uid="{A7AA35AB-E97E-45D2-85AB-B1564AF8E293}"/>
     <hyperlink ref="B4" location="'NTLA-2002'!A1" display="NTLA-2002" xr:uid="{29DB71C3-EE96-4213-A1E4-FD438CA1BCF6}"/>
+    <hyperlink ref="B5" location="'NTLA-3001'!A1" display="NTLA-3001" xr:uid="{CC733817-EDD7-4E88-9268-59A1BA7E5AF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1169,7 +1193,7 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.2">
@@ -1371,7 +1395,7 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" s="3">
         <v>225</v>
@@ -1379,7 +1403,7 @@
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G4" s="18">
         <f>2327/0.225</f>
@@ -1388,7 +1412,7 @@
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G5" s="18">
         <v>2327</v>
@@ -1396,7 +1420,7 @@
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G6" s="18">
         <v>2500</v>
@@ -1443,7 +1467,7 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G7" s="18">
         <v>500</v>
@@ -1499,16 +1523,16 @@
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="G8" s="18">
         <f>+G6*G7/1000</f>
@@ -1569,7 +1593,7 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H9" s="18">
         <f>+H8*0.2</f>
@@ -1626,7 +1650,7 @@
     </row>
     <row r="10" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -1702,7 +1726,7 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G11" s="18">
         <f>+G10*0.05</f>
@@ -1763,7 +1787,7 @@
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G12" s="18">
         <f>+G10-G11</f>
@@ -1824,7 +1848,7 @@
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G13" s="3">
         <v>200</v>
@@ -1871,7 +1895,7 @@
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G14" s="18">
         <f>+G12-G13</f>
@@ -1932,7 +1956,7 @@
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G15" s="18">
         <f>+G14*0.25</f>
@@ -1993,7 +2017,7 @@
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G16" s="18">
         <f>+G14-G15</f>
@@ -2054,7 +2078,7 @@
     </row>
     <row r="17" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -2113,7 +2137,7 @@
     </row>
     <row r="18" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3">
         <v>-300</v>
@@ -2307,7 +2331,7 @@
     </row>
     <row r="19" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C19">
         <v>85</v>
@@ -2388,7 +2412,7 @@
     </row>
     <row r="21" spans="2:51" x14ac:dyDescent="0.2">
       <c r="V21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="W21" s="21">
         <v>0.1</v>
@@ -2396,7 +2420,7 @@
     </row>
     <row r="22" spans="2:51" x14ac:dyDescent="0.2">
       <c r="V22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W22" s="21">
         <v>-0.05</v>
@@ -2404,20 +2428,20 @@
     </row>
     <row r="23" spans="2:51" x14ac:dyDescent="0.2">
       <c r="V23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="W23" s="2">
         <f>NPV(W21,D18:AY18)+Main!J5-Main!J6</f>
-        <v>7420.7340343987607</v>
+        <v>7407.2500343987604</v>
       </c>
     </row>
     <row r="24" spans="2:51" x14ac:dyDescent="0.2">
       <c r="V24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="W24" s="1">
         <f>W23/Main!J3</f>
-        <v>76.918725414861484</v>
+        <v>76.778958635903194</v>
       </c>
     </row>
   </sheetData>
@@ -2431,11 +2455,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFD4975-DF27-4A82-9E0B-8E1BC512C2AC}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2445,7 +2467,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2458,7 +2480,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2466,65 +2491,70 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="14" t="s">
-        <v>50</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="14" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2549,7 +2579,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2557,7 +2587,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2565,7 +2595,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2573,78 +2603,78 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="14" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2657,19 +2687,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB68746A-5C7C-4F30-800E-B9BC106F9046}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2677,25 +2709,30 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="14" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
